--- a/source3.xlsx
+++ b/source3.xlsx
@@ -4485,8 +4485,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -4496,8 +4495,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -4507,8 +4505,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -4518,8 +4515,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6494,8 +6490,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6505,8 +6500,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6516,8 +6510,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6527,8 +6520,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8199,8 +8191,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8210,8 +8201,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8221,8 +8211,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8232,8 +8221,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10161,8 +10149,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10172,8 +10159,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10183,8 +10169,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10194,8 +10179,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10942,8 +10926,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10953,8 +10936,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10964,8 +10946,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10975,8 +10956,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -13280,8 +13260,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -13291,8 +13270,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -13302,8 +13280,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -13313,8 +13290,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
